--- a/artfynd/A 27577-2022.xlsx
+++ b/artfynd/A 27577-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101518122</v>
+        <v>101518285</v>
       </c>
       <c r="B2" t="n">
-        <v>98520</v>
+        <v>101680</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>488574.2918541323</v>
+        <v>488287.0494584803</v>
       </c>
       <c r="R2" t="n">
-        <v>7037824.95849665</v>
+        <v>7039218.005914037</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>101518168</v>
+        <v>101518122</v>
       </c>
       <c r="B3" t="n">
-        <v>101120</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>488543.2764927606</v>
+        <v>488574.2918541323</v>
       </c>
       <c r="R3" t="n">
-        <v>7037915.385141752</v>
+        <v>7037824.95849665</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101518285</v>
+        <v>101518168</v>
       </c>
       <c r="B4" t="n">
-        <v>101680</v>
+        <v>101120</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,16 +930,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222412</v>
+        <v>222002</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>488287.0494584803</v>
+        <v>488543.2764927606</v>
       </c>
       <c r="R4" t="n">
-        <v>7039218.005914037</v>
+        <v>7037915.385141752</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 27577-2022.xlsx
+++ b/artfynd/A 27577-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101518285</v>
+        <v>101518122</v>
       </c>
       <c r="B2" t="n">
-        <v>101680</v>
+        <v>98520</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>488287.0494584803</v>
+        <v>488574.2918541323</v>
       </c>
       <c r="R2" t="n">
-        <v>7039218.005914037</v>
+        <v>7037824.95849665</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>101518122</v>
+        <v>101518168</v>
       </c>
       <c r="B3" t="n">
-        <v>98520</v>
+        <v>101120</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>488574.2918541323</v>
+        <v>488543.2764927606</v>
       </c>
       <c r="R3" t="n">
-        <v>7037824.95849665</v>
+        <v>7037915.385141752</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101518168</v>
+        <v>101518285</v>
       </c>
       <c r="B4" t="n">
-        <v>101120</v>
+        <v>101680</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,16 +930,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222002</v>
+        <v>222412</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>488543.2764927606</v>
+        <v>488287.0494584803</v>
       </c>
       <c r="R4" t="n">
-        <v>7037915.385141752</v>
+        <v>7039218.005914037</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
